--- a/Main/Output/Analysis/IndicSpecies Analysis.xlsx
+++ b/Main/Output/Analysis/IndicSpecies Analysis.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -172,12 +171,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -189,6 +182,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +523,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +538,7 @@
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="11" width="14" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="50.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="50.7109375" style="2" customWidth="1"/>
     <col min="15" max="22" width="11" customWidth="1"/>
     <col min="23" max="112" width="12" customWidth="1"/>
     <col min="113" max="1012" width="13" customWidth="1"/>
@@ -548,33 +547,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="9" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -616,12 +615,12 @@
       <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
